--- a/data/cci/cci-ecv.xlsx
+++ b/data/cci/cci-ecv.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FA9435-4D9F-9346-B53A-B663A35A996B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A7076C-9A15-8A40-A848-B5BF8AE78A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69680" yWindow="-700" windowWidth="30240" windowHeight="18880" xr2:uid="{E60FFCBA-B9DB-1D4E-962B-521143A14C2F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3F460F24-3E51-3047-9A11-C14FB923012C}"/>
   </bookViews>
   <sheets>
     <sheet name="cci-ecv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>URI</t>
   </si>
@@ -287,6 +287,30 @@
   </si>
   <si>
     <t>Lakes climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
+  </si>
+  <si>
+    <t>cciecv_vegParam</t>
+  </si>
+  <si>
+    <t>vegetation parameters</t>
+  </si>
+  <si>
+    <t>VEGETATION</t>
+  </si>
+  <si>
+    <t>Vegetation Parameters climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
+  </si>
+  <si>
+    <t>cciecv_riverDischarge</t>
+  </si>
+  <si>
+    <t>river discharge</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>River discharge climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
   </si>
 </sst>
 </file>
@@ -296,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -352,12 +376,6 @@
       <b/>
       <i/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,46 +548,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,28 +606,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Accent" xfId="7" xr:uid="{CC5BB9EC-FE04-554C-9700-C662F82BF81C}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{86751149-DCDA-774E-BEA5-0D271C43D754}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{CF0F9A06-7C04-B846-BA0B-F03B92F2D7B2}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{01383BC4-23A8-CA4C-817D-176B189735C2}"/>
+  <cellStyles count="20">
+    <cellStyle name="Accent" xfId="7" xr:uid="{1283C421-912A-6C41-9C28-C0BB1AF5D80B}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{6B0E8D3D-E877-C844-BF88-5D80C15EF657}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{0E77BCDE-A361-2248-AB39-425DEBDD64B6}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{9FAFBFFE-9161-E343-BF07-C96781736B28}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{9AD83098-B430-D043-AFE6-626CF2C32F5E}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{9F48B7FB-275E-5049-A797-9D9DAA09BC0E}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{30D5CB4D-1F84-7E4B-A41D-2A36CE46A9FA}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{308EA5F5-A9B6-3B4E-938F-50A3F210CCFA}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{79623B5A-C067-0449-9B60-2A85C199C4A3}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{335C6813-EC24-4744-B948-34C87867D738}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="14" xr:uid="{3353E6A1-636E-FD4A-8A20-B8B426D7FD08}"/>
-    <cellStyle name="Hyperlink" xfId="15" xr:uid="{9E4AAD43-9875-8A4C-85A7-87B73C141861}"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{CE40B13C-A21C-7444-BAC5-BBAA77C2A45E}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="16" xr:uid="{42A4BB16-2250-E648-8DC6-979107C2E401}"/>
-    <cellStyle name="Result2" xfId="17" xr:uid="{68CA44AB-41A5-3A41-B40F-44C523F2FD25}"/>
-    <cellStyle name="Status" xfId="18" xr:uid="{41129270-324C-7742-BBDC-0006553FE8A9}"/>
-    <cellStyle name="Text" xfId="19" xr:uid="{621F852F-602A-A846-B613-46DB0EBC3560}"/>
-    <cellStyle name="Warning" xfId="20" xr:uid="{65B2F8C7-D184-1E43-8387-F2969C69963C}"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{C31DE812-A945-AA40-93B3-B99C0879C91C}"/>
+    <cellStyle name="Result2" xfId="16" xr:uid="{C22F0C93-BFD9-6747-8ED5-8CA5D70704AC}"/>
+    <cellStyle name="Status" xfId="17" xr:uid="{B4C30389-50D6-D94A-A925-70ADD1D0F7D6}"/>
+    <cellStyle name="Text" xfId="18" xr:uid="{B547C9CA-4E2B-CB41-8B5D-C15C3C069731}"/>
+    <cellStyle name="Warning" xfId="19" xr:uid="{6A0A4D03-929A-0743-978B-D337F778DD8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,17 +957,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E0A175-58AF-0A48-B201-42FD55A4535A}">
-  <dimension ref="A1:BL22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A39781-FE70-354D-89DE-125FC4164EF6}">
+  <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="4" customWidth="1"/>
     <col min="2" max="3" width="31.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="76.33203125" style="4" customWidth="1"/>
     <col min="5" max="64" width="10.6640625" style="4" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1280,8 +1295,36 @@
         <v>88</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="1.143700787401575" bottom="1.143700787401575" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/data/cci/cci-ecv.xlsx
+++ b/data/cci/cci-ecv.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A7076C-9A15-8A40-A848-B5BF8AE78A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D6A7076C-9A15-8A40-A848-B5BF8AE78A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4EF89B-B8E6-47F7-A88B-A5A372D1348D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3F460F24-3E51-3047-9A11-C14FB923012C}"/>
+    <workbookView xWindow="4215" yWindow="3450" windowWidth="28800" windowHeight="15285" xr2:uid="{3F460F24-3E51-3047-9A11-C14FB923012C}"/>
   </bookViews>
   <sheets>
     <sheet name="cci-ecv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>URI</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>River discharge climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
+  </si>
+  <si>
+    <t>cciecv_other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Includes all other data that do not correspond to one of the listed ECV's</t>
+  </si>
+  <si>
+    <t>OTHER</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -590,20 +602,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -958,20 +964,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A39781-FE70-354D-89DE-125FC4164EF6}">
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:BL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="3" width="31.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="76.33203125" style="4" customWidth="1"/>
-    <col min="5" max="64" width="10.6640625" style="4" customWidth="1"/>
-    <col min="65" max="65" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="31.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="76.28515625" style="4" customWidth="1"/>
+    <col min="5" max="64" width="10.7109375" style="4" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,203 +996,203 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1197,8 +1205,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1211,8 +1219,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1225,8 +1233,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1239,8 +1247,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1253,8 +1261,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1267,8 +1275,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1281,8 +1289,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1295,7 +1303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -1321,6 +1329,20 @@
       </c>
       <c r="D24" s="4" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/cci/cci-ecv.xlsx
+++ b/data/cci/cci-ecv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D6A7076C-9A15-8A40-A848-B5BF8AE78A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4EF89B-B8E6-47F7-A88B-A5A372D1348D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D6A7076C-9A15-8A40-A848-B5BF8AE78A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD9A693-2A1D-4A16-982A-49B96F9B6B2F}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3450" windowWidth="28800" windowHeight="15285" xr2:uid="{3F460F24-3E51-3047-9A11-C14FB923012C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3F460F24-3E51-3047-9A11-C14FB923012C}"/>
   </bookViews>
   <sheets>
     <sheet name="cci-ecv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>URI</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>OTHER</t>
+  </si>
+  <si>
+    <t>cciecv_prec</t>
+  </si>
+  <si>
+    <t>precursors for aerosols and ozone</t>
+  </si>
+  <si>
+    <t>PREC</t>
+  </si>
+  <si>
+    <t>Precursors for aerosols and ozone climate data records produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
   </si>
 </sst>
 </file>
@@ -964,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A39781-FE70-354D-89DE-125FC4164EF6}">
-  <dimension ref="A1:BL25"/>
+  <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,15 +1345,29 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>99</v>
       </c>
     </row>
